--- a/data/symulowane_ceny_produktow.xlsx
+++ b/data/symulowane_ceny_produktow.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CDF1EF-5986-4FE0-AF90-CCE55F5ABD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,11 +61,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,25 +117,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,9 +186,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,9 +220,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,9 +272,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,3381 +465,3389 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>45292</v>
       </c>
       <c r="D2">
         <v>3.84</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>45323</v>
       </c>
       <c r="D3">
         <v>4.08</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>45352</v>
       </c>
       <c r="D4">
         <v>4.12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>45383</v>
       </c>
       <c r="D5">
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>45413</v>
       </c>
       <c r="D6">
         <v>3.81</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>45444</v>
       </c>
       <c r="D7">
         <v>4.28</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>45474</v>
       </c>
       <c r="D8">
         <v>4.47</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>45505</v>
       </c>
       <c r="D9">
-        <v>4.19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>45536</v>
       </c>
       <c r="D10">
         <v>4.59</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>45566</v>
       </c>
       <c r="D11">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>45597</v>
       </c>
       <c r="D12">
-        <v>4.14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>45627</v>
       </c>
       <c r="D13">
         <v>4.03</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>45658</v>
       </c>
       <c r="D14">
-        <v>4.02</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>45689</v>
       </c>
       <c r="D15">
         <v>3.92</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>45717</v>
       </c>
       <c r="D16">
         <v>3.88</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>45748</v>
       </c>
       <c r="D17">
         <v>3.53</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>45292</v>
       </c>
       <c r="D18">
         <v>7.56</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>45323</v>
       </c>
       <c r="D19">
         <v>8.01</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>45352</v>
       </c>
       <c r="D20">
         <v>7.53</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>45383</v>
       </c>
       <c r="D21">
         <v>7.89</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>45413</v>
       </c>
       <c r="D22">
         <v>7.79</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>45444</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>45474</v>
       </c>
       <c r="D24">
         <v>7.87</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>45505</v>
       </c>
       <c r="D25">
-        <v>8.119999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>8.1199999999999992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>45536</v>
       </c>
       <c r="D26">
         <v>7.63</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>45566</v>
       </c>
       <c r="D27">
         <v>7.96</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>45597</v>
       </c>
       <c r="D28">
         <v>7.73</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="3">
         <v>45627</v>
       </c>
       <c r="D29">
         <v>7.45</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>45658</v>
       </c>
       <c r="D30">
         <v>7.61</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <v>45689</v>
       </c>
       <c r="D31">
         <v>7.23</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>45717</v>
       </c>
       <c r="D32">
         <v>7.72</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>45748</v>
       </c>
       <c r="D33">
         <v>7.24</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>45292</v>
       </c>
       <c r="D34">
         <v>6.81</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <v>45323</v>
       </c>
       <c r="D35">
         <v>7.1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>45352</v>
       </c>
       <c r="D36">
         <v>6.69</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="3">
         <v>45383</v>
       </c>
       <c r="D37">
         <v>6.92</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="3">
         <v>45413</v>
       </c>
       <c r="D38">
         <v>6.57</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="3">
         <v>45444</v>
       </c>
       <c r="D39">
         <v>6.91</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="3">
         <v>45474</v>
       </c>
       <c r="D40">
         <v>6.92</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="3">
         <v>45505</v>
       </c>
       <c r="D41">
         <v>6.79</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="3">
         <v>45536</v>
       </c>
       <c r="D42">
         <v>7.27</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="3">
         <v>45566</v>
       </c>
       <c r="D43">
         <v>7.23</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="3">
         <v>45597</v>
       </c>
       <c r="D44">
         <v>7.42</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="3">
         <v>45627</v>
       </c>
       <c r="D45">
         <v>7.28</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="3">
         <v>45658</v>
       </c>
       <c r="D46">
         <v>7.77</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="3">
         <v>45689</v>
       </c>
       <c r="D47">
         <v>7.82</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="3">
         <v>45717</v>
       </c>
       <c r="D48">
         <v>7.62</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="3">
         <v>45748</v>
       </c>
       <c r="D49">
         <v>7.39</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="3">
         <v>45292</v>
       </c>
       <c r="D50">
         <v>3.38</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <v>45323</v>
       </c>
       <c r="D51">
         <v>3.43</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="3">
         <v>45352</v>
       </c>
       <c r="D52">
         <v>3.22</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="3">
         <v>45383</v>
       </c>
       <c r="D53">
         <v>2.84</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="3">
         <v>45413</v>
       </c>
       <c r="D54">
-        <v>2.47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="3">
         <v>45444</v>
       </c>
       <c r="D55">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="3">
         <v>45474</v>
       </c>
       <c r="D56">
         <v>2.33</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="3">
         <v>45505</v>
       </c>
       <c r="D57">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="3">
         <v>45536</v>
       </c>
       <c r="D58">
         <v>1.93</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="3">
         <v>45566</v>
       </c>
       <c r="D59">
         <v>1.96</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="3">
         <v>45597</v>
       </c>
       <c r="D60">
         <v>1.89</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="3">
         <v>45627</v>
       </c>
       <c r="D61">
         <v>1.44</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="3">
         <v>45658</v>
       </c>
       <c r="D62">
         <v>1.28</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="3">
         <v>45689</v>
       </c>
       <c r="D63">
         <v>1.28</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="3">
         <v>45717</v>
       </c>
       <c r="D64">
         <v>1.28</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="3">
         <v>45748</v>
       </c>
       <c r="D65">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="3">
         <v>45292</v>
       </c>
       <c r="D66">
         <v>4.58</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="3">
         <v>45323</v>
       </c>
       <c r="D67">
-        <v>4.77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="3">
         <v>45352</v>
       </c>
       <c r="D68">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="3">
         <v>45383</v>
       </c>
       <c r="D69">
         <v>4.67</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="3">
         <v>45413</v>
       </c>
       <c r="D70">
         <v>4.42</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="3">
         <v>45444</v>
       </c>
       <c r="D71">
         <v>4.5</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="3">
         <v>45474</v>
       </c>
       <c r="D72">
         <v>4.46</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="3">
         <v>45505</v>
       </c>
       <c r="D73">
         <v>4.51</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="3">
         <v>45536</v>
       </c>
       <c r="D74">
         <v>4.18</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="3">
         <v>45566</v>
       </c>
       <c r="D75">
         <v>4.66</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="3">
         <v>45597</v>
       </c>
       <c r="D76">
         <v>4.5</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="3">
         <v>45627</v>
       </c>
       <c r="D77">
         <v>4.53</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="3">
         <v>45658</v>
       </c>
       <c r="D78">
         <v>4.7</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="3">
         <v>45689</v>
       </c>
       <c r="D79">
         <v>4.34</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="3">
         <v>45717</v>
       </c>
       <c r="D80">
         <v>4.46</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="3">
         <v>45748</v>
       </c>
       <c r="D81">
-        <v>4.14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="3">
         <v>45292</v>
       </c>
       <c r="D82">
         <v>4.2</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="3">
         <v>45323</v>
       </c>
       <c r="D83">
         <v>4.26</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="3">
         <v>45352</v>
       </c>
       <c r="D84">
         <v>4.47</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="3">
         <v>45383</v>
       </c>
       <c r="D85">
         <v>4.28</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="3">
         <v>45413</v>
       </c>
       <c r="D86">
         <v>4.34</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="3">
         <v>45444</v>
       </c>
       <c r="D87">
         <v>4.46</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="3">
         <v>45474</v>
       </c>
       <c r="D88">
         <v>4.76</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="3">
         <v>45505</v>
       </c>
       <c r="D89">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="3">
         <v>45536</v>
       </c>
       <c r="D90">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="3">
         <v>45566</v>
       </c>
       <c r="D91">
         <v>5.38</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="3">
         <v>45597</v>
       </c>
       <c r="D92">
         <v>5.82</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="3">
         <v>45627</v>
       </c>
       <c r="D93">
         <v>5.49</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="3">
         <v>45658</v>
       </c>
       <c r="D94">
         <v>5.77</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="3">
         <v>45689</v>
       </c>
       <c r="D95">
         <v>5.92</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="3">
         <v>45717</v>
       </c>
       <c r="D96">
         <v>6.17</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="3">
         <v>45748</v>
       </c>
       <c r="D97">
         <v>6.39</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="3">
         <v>45292</v>
       </c>
       <c r="D98">
         <v>2.63</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="3">
         <v>45323</v>
       </c>
       <c r="D99">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="3">
         <v>45352</v>
       </c>
       <c r="D100">
         <v>2.27</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="3">
         <v>45383</v>
       </c>
       <c r="D101">
         <v>2.06</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="3">
         <v>45413</v>
       </c>
       <c r="D102">
         <v>1.59</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="3">
         <v>45444</v>
       </c>
       <c r="D103">
         <v>1.95</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="3">
         <v>45474</v>
       </c>
       <c r="D104">
         <v>1.9</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="3">
         <v>45505</v>
       </c>
       <c r="D105">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="3">
         <v>45536</v>
       </c>
       <c r="D106">
         <v>1.59</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="3">
         <v>45566</v>
       </c>
       <c r="D107">
         <v>1.93</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="3">
         <v>45597</v>
       </c>
       <c r="D108">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="3">
         <v>45627</v>
       </c>
       <c r="D109">
         <v>2.4</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="3">
         <v>45658</v>
       </c>
       <c r="D110">
         <v>2.19</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="3">
         <v>45689</v>
       </c>
       <c r="D111">
         <v>2.58</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="3">
         <v>45717</v>
       </c>
       <c r="D112">
         <v>2.37</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="3">
         <v>45748</v>
       </c>
       <c r="D113">
         <v>2.66</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
       <c r="B114" t="s">
         <v>9</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="3">
         <v>45292</v>
       </c>
       <c r="D114">
-        <v>9.789999999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>9.7899999999999991</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
       <c r="B115" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="3">
         <v>45323</v>
       </c>
       <c r="D115">
         <v>9.57</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
       <c r="B116" t="s">
         <v>9</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="3">
         <v>45352</v>
       </c>
       <c r="D116">
-        <v>9.539999999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>9.5399999999999991</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
       <c r="B117" t="s">
         <v>9</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="3">
         <v>45383</v>
       </c>
       <c r="D117">
-        <v>9.130000000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>9.1300000000000008</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="3">
         <v>45413</v>
       </c>
       <c r="D118">
         <v>8.9</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
       <c r="B119" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="3">
         <v>45444</v>
       </c>
       <c r="D119">
-        <v>8.630000000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
       <c r="B120" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="3">
         <v>45474</v>
       </c>
       <c r="D120">
         <v>8.4</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
       <c r="B121" t="s">
         <v>9</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="3">
         <v>45505</v>
       </c>
       <c r="D121">
-        <v>8.859999999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
       <c r="B122" t="s">
         <v>9</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="3">
         <v>45536</v>
       </c>
       <c r="D122">
-        <v>9.140000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
       <c r="B123" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="3">
         <v>45566</v>
       </c>
       <c r="D123">
-        <v>9.289999999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
       <c r="B124" t="s">
         <v>9</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="3">
         <v>45597</v>
       </c>
       <c r="D124">
-        <v>9.539999999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>9.5399999999999991</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
       <c r="B125" t="s">
         <v>9</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="3">
         <v>45627</v>
       </c>
       <c r="D125">
-        <v>9.789999999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>9.7899999999999991</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
       <c r="B126" t="s">
         <v>9</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="3">
         <v>45658</v>
       </c>
       <c r="D126">
         <v>9.32</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
       <c r="B127" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="3">
         <v>45689</v>
       </c>
       <c r="D127">
-        <v>9.380000000000001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
       <c r="B128" t="s">
         <v>9</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="3">
         <v>45717</v>
       </c>
       <c r="D128">
         <v>9.66</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
       <c r="B129" t="s">
         <v>9</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="3">
         <v>45748</v>
       </c>
       <c r="D129">
         <v>9.35</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="3">
         <v>45292</v>
       </c>
       <c r="D130">
         <v>5.38</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="3">
         <v>45323</v>
       </c>
       <c r="D131">
-        <v>4.89</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="3">
         <v>45352</v>
       </c>
       <c r="D132">
         <v>5.13</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="3">
         <v>45383</v>
       </c>
       <c r="D133">
         <v>5.53</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="3">
         <v>45413</v>
       </c>
       <c r="D134">
         <v>5.67</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="3">
         <v>45444</v>
       </c>
       <c r="D135">
         <v>5.23</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="3">
         <v>45474</v>
       </c>
       <c r="D136">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="3">
         <v>45505</v>
       </c>
       <c r="D137">
         <v>5.07</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="3">
         <v>45536</v>
       </c>
       <c r="D138">
         <v>4.72</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="3">
         <v>45566</v>
       </c>
       <c r="D139">
         <v>4.7</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="3">
         <v>45597</v>
       </c>
       <c r="D140">
         <v>5.18</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="3">
         <v>45627</v>
       </c>
       <c r="D141">
         <v>5.43</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="3">
         <v>45658</v>
       </c>
       <c r="D142">
         <v>5.81</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="3">
         <v>45689</v>
       </c>
       <c r="D143">
         <v>5.31</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="3">
         <v>45717</v>
       </c>
       <c r="D144">
         <v>5.46</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="3">
         <v>45748</v>
       </c>
       <c r="D145">
         <v>5.72</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="3">
         <v>45292</v>
       </c>
       <c r="D146">
         <v>8.98</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="3">
         <v>45323</v>
       </c>
       <c r="D147">
         <v>9.33</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="3">
         <v>45352</v>
       </c>
       <c r="D148">
         <v>9.81</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="3">
         <v>45383</v>
       </c>
       <c r="D149">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="3">
         <v>45413</v>
       </c>
       <c r="D150">
-        <v>9.880000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="3">
         <v>45444</v>
       </c>
       <c r="D151">
         <v>10.24</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="3">
         <v>45474</v>
       </c>
       <c r="D152">
         <v>9.94</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>5</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="3">
         <v>45505</v>
       </c>
       <c r="D153">
         <v>9.93</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
       <c r="B154" t="s">
         <v>11</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="3">
         <v>45536</v>
       </c>
       <c r="D154">
         <v>10.39</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>5</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="3">
         <v>45566</v>
       </c>
       <c r="D155">
         <v>10.59</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>5</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="3">
         <v>45597</v>
       </c>
       <c r="D156">
         <v>10.45</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>5</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="3">
         <v>45627</v>
       </c>
       <c r="D157">
         <v>10.44</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>5</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="3">
         <v>45658</v>
       </c>
       <c r="D158">
         <v>10.79</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>5</v>
       </c>
       <c r="B159" t="s">
         <v>11</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="3">
         <v>45689</v>
       </c>
       <c r="D159">
         <v>11.18</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>5</v>
       </c>
       <c r="B160" t="s">
         <v>11</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="3">
         <v>45717</v>
       </c>
       <c r="D160">
         <v>10.9</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>5</v>
       </c>
       <c r="B161" t="s">
         <v>11</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="3">
         <v>45748</v>
       </c>
       <c r="D161">
         <v>10.75</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="3">
         <v>45292</v>
       </c>
       <c r="D162">
         <v>5.93</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>6</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="3">
         <v>45323</v>
       </c>
       <c r="D163">
         <v>5.96</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>6</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="3">
         <v>45352</v>
       </c>
       <c r="D164">
         <v>5.6</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>6</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="3">
         <v>45383</v>
       </c>
       <c r="D165">
         <v>5.18</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>6</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="3">
         <v>45413</v>
       </c>
       <c r="D166">
         <v>5.21</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>6</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="3">
         <v>45444</v>
       </c>
       <c r="D167">
         <v>4.74</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="3">
         <v>45474</v>
       </c>
       <c r="D168">
         <v>4.49</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="3">
         <v>45505</v>
       </c>
       <c r="D169">
         <v>4.91</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>6</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="3">
         <v>45536</v>
       </c>
       <c r="D170">
         <v>5.16</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>6</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="3">
         <v>45566</v>
       </c>
       <c r="D171">
         <v>5.43</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>6</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="3">
         <v>45597</v>
       </c>
       <c r="D172">
         <v>5.73</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>6</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="3">
         <v>45627</v>
       </c>
       <c r="D173">
         <v>5.55</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>6</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="3">
         <v>45658</v>
       </c>
       <c r="D174">
         <v>5.43</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>6</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175" s="3">
         <v>45689</v>
       </c>
       <c r="D175">
         <v>5.38</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>6</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="3">
         <v>45717</v>
       </c>
       <c r="D176">
         <v>5.15</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>6</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177" s="3">
         <v>45748</v>
       </c>
       <c r="D177">
         <v>5.49</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>6</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178" s="3">
         <v>45292</v>
       </c>
       <c r="D178">
         <v>7.3</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>6</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179" s="3">
         <v>45323</v>
       </c>
       <c r="D179">
         <v>7.79</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>6</v>
       </c>
       <c r="B180" t="s">
         <v>8</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180" s="3">
         <v>45352</v>
       </c>
       <c r="D180">
         <v>7.65</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>6</v>
       </c>
       <c r="B181" t="s">
         <v>8</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181" s="3">
         <v>45383</v>
       </c>
       <c r="D181">
         <v>7.65</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>6</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182" s="3">
         <v>45413</v>
       </c>
       <c r="D182">
         <v>7.48</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>6</v>
       </c>
       <c r="B183" t="s">
         <v>8</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183" s="3">
         <v>45444</v>
       </c>
       <c r="D183">
         <v>7.25</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>6</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184" s="3">
         <v>45474</v>
       </c>
       <c r="D184">
         <v>6.8</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>6</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185" s="3">
         <v>45505</v>
       </c>
       <c r="D185">
         <v>6.9</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>6</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="3">
         <v>45536</v>
       </c>
       <c r="D186">
         <v>6.88</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>6</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187" s="3">
         <v>45566</v>
       </c>
       <c r="D187">
         <v>7.08</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>6</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188" s="3">
         <v>45597</v>
       </c>
       <c r="D188">
         <v>6.75</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>6</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189" s="3">
         <v>45627</v>
       </c>
       <c r="D189">
         <v>6.71</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>6</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190" s="3">
         <v>45658</v>
       </c>
       <c r="D190">
         <v>7.21</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>6</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191" s="3">
         <v>45689</v>
       </c>
       <c r="D191">
         <v>7.63</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>6</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="3">
         <v>45717</v>
       </c>
       <c r="D192">
         <v>8.09</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>6</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="3">
         <v>45748</v>
       </c>
       <c r="D193">
-        <v>8.140000000000001</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>6</v>
       </c>
       <c r="B194" t="s">
         <v>9</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194" s="3">
         <v>45292</v>
       </c>
       <c r="D194">
         <v>4.09</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>6</v>
       </c>
       <c r="B195" t="s">
         <v>9</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195" s="3">
         <v>45323</v>
       </c>
       <c r="D195">
         <v>4.28</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>6</v>
       </c>
       <c r="B196" t="s">
         <v>9</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196" s="3">
         <v>45352</v>
       </c>
       <c r="D196">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>6</v>
       </c>
       <c r="B197" t="s">
         <v>9</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197" s="3">
         <v>45383</v>
       </c>
       <c r="D197">
         <v>4.28</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>6</v>
       </c>
       <c r="B198" t="s">
         <v>9</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198" s="3">
         <v>45413</v>
       </c>
       <c r="D198">
         <v>3.94</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>6</v>
       </c>
       <c r="B199" t="s">
         <v>9</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="3">
         <v>45444</v>
       </c>
       <c r="D199">
         <v>4.41</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>6</v>
       </c>
       <c r="B200" t="s">
         <v>9</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="3">
         <v>45474</v>
       </c>
       <c r="D200">
         <v>4.5</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>6</v>
       </c>
       <c r="B201" t="s">
         <v>9</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201" s="3">
         <v>45505</v>
       </c>
       <c r="D201">
-        <v>4.27</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>6</v>
       </c>
       <c r="B202" t="s">
         <v>9</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="3">
         <v>45536</v>
       </c>
       <c r="D202">
-        <v>4.11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>6</v>
       </c>
       <c r="B203" t="s">
         <v>9</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="3">
         <v>45566</v>
       </c>
       <c r="D203">
         <v>4.18</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>6</v>
       </c>
       <c r="B204" t="s">
         <v>9</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204" s="3">
         <v>45597</v>
       </c>
       <c r="D204">
         <v>4.01</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>6</v>
       </c>
       <c r="B205" t="s">
         <v>9</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205" s="3">
         <v>45627</v>
       </c>
       <c r="D205">
         <v>3.88</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>6</v>
       </c>
       <c r="B206" t="s">
         <v>9</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="3">
         <v>45658</v>
       </c>
       <c r="D206">
         <v>4.08</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>6</v>
       </c>
       <c r="B207" t="s">
         <v>9</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207" s="3">
         <v>45689</v>
       </c>
       <c r="D207">
         <v>3.6</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>6</v>
       </c>
       <c r="B208" t="s">
         <v>9</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208" s="3">
         <v>45717</v>
       </c>
       <c r="D208">
         <v>3.73</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>6</v>
       </c>
       <c r="B209" t="s">
         <v>9</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209" s="3">
         <v>45748</v>
       </c>
       <c r="D209">
         <v>3.66</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>6</v>
       </c>
       <c r="B210" t="s">
         <v>10</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210" s="3">
         <v>45292</v>
       </c>
       <c r="D210">
-        <v>9.609999999999999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>9.61</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>6</v>
       </c>
       <c r="B211" t="s">
         <v>10</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211" s="3">
         <v>45323</v>
       </c>
       <c r="D211">
         <v>9.68</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>6</v>
       </c>
       <c r="B212" t="s">
         <v>10</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212" s="3">
         <v>45352</v>
       </c>
       <c r="D212">
-        <v>9.630000000000001</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>6</v>
       </c>
       <c r="B213" t="s">
         <v>10</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213" s="3">
         <v>45383</v>
       </c>
       <c r="D213">
         <v>9.16</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>6</v>
       </c>
       <c r="B214" t="s">
         <v>10</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214" s="3">
         <v>45413</v>
       </c>
       <c r="D214">
         <v>8.9</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>6</v>
       </c>
       <c r="B215" t="s">
         <v>10</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="3">
         <v>45444</v>
       </c>
       <c r="D215">
         <v>8.77</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>6</v>
       </c>
       <c r="B216" t="s">
         <v>10</v>
       </c>
-      <c r="C216" s="2">
+      <c r="C216" s="3">
         <v>45474</v>
       </c>
       <c r="D216">
-        <v>8.869999999999999</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>6</v>
       </c>
       <c r="B217" t="s">
         <v>10</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C217" s="3">
         <v>45505</v>
       </c>
       <c r="D217">
         <v>8.49</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>6</v>
       </c>
       <c r="B218" t="s">
         <v>10</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C218" s="3">
         <v>45536</v>
       </c>
       <c r="D218">
-        <v>8.720000000000001</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>6</v>
       </c>
       <c r="B219" t="s">
         <v>10</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219" s="3">
         <v>45566</v>
       </c>
       <c r="D219">
         <v>8.56</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>6</v>
       </c>
       <c r="B220" t="s">
         <v>10</v>
       </c>
-      <c r="C220" s="2">
+      <c r="C220" s="3">
         <v>45597</v>
       </c>
       <c r="D220">
         <v>8.69</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>6</v>
       </c>
       <c r="B221" t="s">
         <v>10</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C221" s="3">
         <v>45627</v>
       </c>
       <c r="D221">
-        <v>8.720000000000001</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>6</v>
       </c>
       <c r="B222" t="s">
         <v>10</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222" s="3">
         <v>45658</v>
       </c>
       <c r="D222">
-        <v>9.109999999999999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>6</v>
       </c>
       <c r="B223" t="s">
         <v>10</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C223" s="3">
         <v>45689</v>
       </c>
       <c r="D223">
         <v>9.17</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>6</v>
       </c>
       <c r="B224" t="s">
         <v>10</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C224" s="3">
         <v>45717</v>
       </c>
       <c r="D224">
         <v>9.41</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>6</v>
       </c>
       <c r="B225" t="s">
         <v>10</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C225" s="3">
         <v>45748</v>
       </c>
       <c r="D225">
         <v>9.26</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>6</v>
       </c>
       <c r="B226" t="s">
         <v>11</v>
       </c>
-      <c r="C226" s="2">
+      <c r="C226" s="3">
         <v>45292</v>
       </c>
       <c r="D226">
         <v>5.8</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>6</v>
       </c>
       <c r="B227" t="s">
         <v>11</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C227" s="3">
         <v>45323</v>
       </c>
       <c r="D227">
         <v>5.31</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>6</v>
       </c>
       <c r="B228" t="s">
         <v>11</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C228" s="3">
         <v>45352</v>
       </c>
       <c r="D228">
         <v>5.08</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>6</v>
       </c>
       <c r="B229" t="s">
         <v>11</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229" s="3">
         <v>45383</v>
       </c>
       <c r="D229">
         <v>5.53</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>6</v>
       </c>
       <c r="B230" t="s">
         <v>11</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C230" s="3">
         <v>45413</v>
       </c>
       <c r="D230">
         <v>5.26</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>6</v>
       </c>
       <c r="B231" t="s">
         <v>11</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C231" s="3">
         <v>45444</v>
       </c>
       <c r="D231">
-        <v>5.11</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>6</v>
       </c>
       <c r="B232" t="s">
         <v>11</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C232" s="3">
         <v>45474</v>
       </c>
       <c r="D232">
         <v>4.97</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>6</v>
       </c>
       <c r="B233" t="s">
         <v>11</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C233" s="3">
         <v>45505</v>
       </c>
       <c r="D233">
         <v>4.75</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>6</v>
       </c>
       <c r="B234" t="s">
         <v>11</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C234" s="3">
         <v>45536</v>
       </c>
       <c r="D234">
         <v>4.95</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>6</v>
       </c>
       <c r="B235" t="s">
         <v>11</v>
       </c>
-      <c r="C235" s="2">
+      <c r="C235" s="3">
         <v>45566</v>
       </c>
       <c r="D235">
         <v>5.08</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>6</v>
       </c>
       <c r="B236" t="s">
         <v>11</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C236" s="3">
         <v>45597</v>
       </c>
       <c r="D236">
         <v>5.38</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>6</v>
       </c>
       <c r="B237" t="s">
         <v>11</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C237" s="3">
         <v>45627</v>
       </c>
       <c r="D237">
         <v>5.78</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>6</v>
       </c>
       <c r="B238" t="s">
         <v>11</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238" s="3">
         <v>45658</v>
       </c>
       <c r="D238">
         <v>5.51</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>6</v>
       </c>
       <c r="B239" t="s">
         <v>11</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C239" s="3">
         <v>45689</v>
       </c>
       <c r="D239">
         <v>5.49</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>6</v>
       </c>
       <c r="B240" t="s">
         <v>11</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C240" s="3">
         <v>45717</v>
       </c>
       <c r="D240">
         <v>5.25</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>6</v>
       </c>
       <c r="B241" t="s">
         <v>11</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C241" s="3">
         <v>45748</v>
       </c>
       <c r="D241">
